--- a/dev_docs/scrum/fastorder - estimacion y entregas.xlsx
+++ b/dev_docs/scrum/fastorder - estimacion y entregas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Tiempo</t>
   </si>
@@ -113,18 +113,12 @@
     <t>En los catálogos, procesar las teclas rápidas mas comunes (cerrar, guardar, nuevo, borrar, buscar)</t>
   </si>
   <si>
-    <t>Como encargado de almacén, quiero que el sistema me ayude a tener el inventario óptimo</t>
-  </si>
-  <si>
     <t>días hábiles</t>
   </si>
   <si>
     <t>crear catálogo de artículos</t>
   </si>
   <si>
-    <t>para cada almacén, manejar existencia actual, máxima, mínima y el punto de reorden (permitir modificación manual)</t>
-  </si>
-  <si>
     <t>generar reporte con los artículos que deben surtirse</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>crear comportamiento navegacion con enter</t>
   </si>
   <si>
-    <t>crear pantalla para actualizar los valores de almacen</t>
-  </si>
-  <si>
     <t>Como encargado de almacén, quiero que el sistema me permita registrar los movimientos en el almacén</t>
   </si>
   <si>
@@ -182,15 +173,6 @@
     <t>Hacer reporte con el pedido concentrado, separado por el proveedor que surte cada producto</t>
   </si>
   <si>
-    <t>Como encargado de almacén, quiero hacer pedidos internos para que me surtan con los materiales que yo considere necesario, y que el sistema me haga sugerencias usando los valores configurados.</t>
-  </si>
-  <si>
-    <t>Hacer catálogo de pedidos internos</t>
-  </si>
-  <si>
-    <t>Agregar a la lista, todos los productos pendientes de surtir (boton precarga)</t>
-  </si>
-  <si>
     <t>crear boton para precargar pedidos internos del proveedor seleccionado.</t>
   </si>
   <si>
@@ -215,7 +197,46 @@
     <t>Como encargado de compras, quiero que el sistema mantenga una relación entre lo que pedí y lo que estoy comprando.</t>
   </si>
   <si>
-    <t>crear menu para los procesos de almacén</t>
+    <t>Definir las opciones del menú para cada rol</t>
+  </si>
+  <si>
+    <t>Como encargado de almacén, quiero o una pantalla para actualizar el inventario (conteo físico).</t>
+  </si>
+  <si>
+    <t>crear catálogo conteos (los articulos contados generarán entradas o salidas por ajuste )</t>
+  </si>
+  <si>
+    <t>Como encargado de almacén, quiero una pantalla para configurar los valores máximo, mínimo y punto de re-orden.</t>
+  </si>
+  <si>
+    <t>crear lista editable, con modo de actualizacion automático (al editar celda)</t>
+  </si>
+  <si>
+    <t>Como encargado de almacén, quiero un reporte con lo que debe ser surtido</t>
+  </si>
+  <si>
+    <t>Como encargado de almacén, quiero que el sistema genere un pedido con lo que es necesario surtir y que me permita modificarlo (pedido interno automático).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Como encargado de almacén, quiero generar pedidos manuales (pedido interno).</t>
+  </si>
+  <si>
+    <t>crear catálogo de pedidos</t>
+  </si>
+  <si>
+    <t>crear funcion pedido interno automático</t>
+  </si>
+  <si>
+    <t>crear menu con las opciones de almacén.</t>
+  </si>
+  <si>
+    <t>catálogo almacenes</t>
+  </si>
+  <si>
+    <t>crear reporte de existencias por almacén y concetrada por articulos</t>
   </si>
 </sst>
 </file>
@@ -340,9 +361,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -351,31 +393,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,12 +714,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -712,643 +733,656 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>SUM(B8:B91)</f>
-        <v>64.5</v>
+        <f>SUM(B9:B102)</f>
+        <v>69.5</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <f>D3*400</f>
+        <v>27800</v>
+      </c>
+      <c r="G3">
+        <f>F3-18000</f>
+        <v>9800</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7">
-        <f>SUM(B8:B13)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14">
-        <f>SUM(B15:B18)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="19" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19">
-        <f>SUM(B20:B21)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22">
-        <f>SUM(B23:B24)</f>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25">
-        <f>SUM(B26:B28)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29">
-        <f>SUM(B30:B33)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34">
-        <f>SUM(B35:B40)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
+    <row r="49" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
         <v>1.5</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="2:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41">
-        <f>SUM(B42:B50)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>4</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="3">
+    <row r="55" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C55" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>0.5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>0.5</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>0.5</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51">
-        <f>SUM(B52:B54)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55">
-        <f>SUM(B56:B60)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61">
-        <f>SUM(B62:B65)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+    </row>
+    <row r="77" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B77" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64">
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>2</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C78" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-    </row>
-    <row r="66" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1.5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66">
-        <f>SUM(B67:B71)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>1.5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72">
-        <f>SUM(B73:B77)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78">
-        <f>SUM(B79:B82)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83">
-        <f>SUM(B84:B87)</f>
-        <v>0</v>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="C40:I40"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B22:I22"/>
     <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/dev_docs/scrum/fastorder - estimacion y entregas.xlsx
+++ b/dev_docs/scrum/fastorder - estimacion y entregas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="16515" windowHeight="7995"/>
@@ -10,12 +10,12 @@
     <sheet name="Tareas" sheetId="1" r:id="rId1"/>
     <sheet name="Entrega 2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Tiempo</t>
   </si>
@@ -158,24 +158,9 @@
     <t>Seleccionar e instalar un software para el api y cookbook del proyecto</t>
   </si>
   <si>
-    <t>Como encargado de compras, quiero saber qué comprar, cuanto, cuando y a quien.</t>
-  </si>
-  <si>
     <t>Como encargado de compras, quiero saber hacia dónde enviar lo que compré.</t>
   </si>
   <si>
-    <t>Hacer reporte con los pedidos de cada almacén</t>
-  </si>
-  <si>
-    <t>Hacer reporte con los pedidos de todos los almacenes (pedido concentrado)</t>
-  </si>
-  <si>
-    <t>Hacer reporte con el pedido concentrado, separado por el proveedor que surte cada producto</t>
-  </si>
-  <si>
-    <t>crear boton para precargar pedidos internos del proveedor seleccionado.</t>
-  </si>
-  <si>
     <t>Como encargado de compras, quiero hacer listas de compras (orden de compra).</t>
   </si>
   <si>
@@ -185,12 +170,6 @@
     <t>crear funcion para hacer ordenes de compras por proveedor.</t>
   </si>
   <si>
-    <t>Como encargado de compras, quiero registrar las compras.</t>
-  </si>
-  <si>
-    <t>Crear catálogo de compra</t>
-  </si>
-  <si>
     <t>Relacionar los pedidos internos con la compra</t>
   </si>
   <si>
@@ -237,13 +216,70 @@
   </si>
   <si>
     <t>crear reporte de existencias por almacén y concetrada por articulos</t>
+  </si>
+  <si>
+    <t>Como encargado de compras, quiero un reporte con lo que pidió cada uno de los almacenes.</t>
+  </si>
+  <si>
+    <t>Como encargado de compras, quiero un reporte con los pedidos concentrados por artículo.</t>
+  </si>
+  <si>
+    <t>Hacer reporte de pedidos por almacen</t>
+  </si>
+  <si>
+    <t>Hacer reporte concentrado por articulo</t>
+  </si>
+  <si>
+    <t>Como encargado de compras, quiero que el sistema mantenga una relación de los artículos que maneja cada proveedor, y en el caso de los artículos que son manejados por varios proveedores, manejar prioridad.</t>
+  </si>
+  <si>
+    <t>Hacer catálogo proveedores</t>
+  </si>
+  <si>
+    <t>Hacer catálogo listas de articulos del proveedor.</t>
+  </si>
+  <si>
+    <t>relacionar compra con una o mas ordenes de compra (detalle contra detalle)</t>
+  </si>
+  <si>
+    <t>headers busqueda: serie - folio, proveedor, fecha, estado, docto, sub, IVA(impuesto1), total</t>
+  </si>
+  <si>
+    <t>filtros: fecha i,fecha f, folio i, folio f, serie, prov, almacen</t>
+  </si>
+  <si>
+    <t>mostrar ordenes de compra pendientes</t>
+  </si>
+  <si>
+    <t>mostrar una ventana con las ordenes (del proveedor seleccionado) pendientes por surtir y permitir selección multiple</t>
+  </si>
+  <si>
+    <t>cargar artículo usando su presentacion.</t>
+  </si>
+  <si>
+    <t>mostrar en una lista, los articulos de las ordenes seleccionadas, no acumulados</t>
+  </si>
+  <si>
+    <t>permitir agregar la lista de articulos a la compra (anexar) cantidad = Cant Pendiente Orden Compra</t>
+  </si>
+  <si>
+    <t>Como encargado de compras, quiero un reporte con los pedidos concentrados pero separados por el proveedor de los artículos.</t>
+  </si>
+  <si>
+    <t>Imprimir lista de articulos del proveedor</t>
+  </si>
+  <si>
+    <t>hacer pantalla para priorizar articulos por proveedor</t>
+  </si>
+  <si>
+    <t>reporte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +347,17 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -344,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -368,34 +415,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:I72"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A86" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,12 +768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -733,48 +787,48 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>SUM(B9:B102)</f>
-        <v>69.5</v>
+        <f>SUM(B9:B114)</f>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3">
         <f>D3*400</f>
-        <v>27800</v>
+        <v>29200</v>
       </c>
       <c r="G3">
         <f>F3-18000</f>
-        <v>9800</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14"/>
+      <c r="C6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -798,7 +852,7 @@
         <v>0.5</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -812,16 +866,16 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -837,23 +891,23 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -862,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -872,23 +926,23 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="B22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -898,16 +952,16 @@
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="B25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
@@ -918,56 +972,56 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="B28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
@@ -986,30 +1040,30 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>0.5</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -1024,7 +1078,7 @@
         <v>0.5</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.25">
@@ -1039,16 +1093,16 @@
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -1062,15 +1116,15 @@
       <c r="B47">
         <v>2</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B48">
@@ -1084,15 +1138,15 @@
       <c r="B49" s="3">
         <v>1.5</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
@@ -1101,16 +1155,16 @@
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53">
@@ -1220,74 +1274,64 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-    </row>
-    <row r="77" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B77" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>42</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -1295,75 +1339,206 @@
         <v>1.5</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="84" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90">
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="2:9" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0.5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0.5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1.5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102">
         <v>7</v>
       </c>
-      <c r="C90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>55</v>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B89:I89"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C75:I75"/>
+  <mergeCells count="31">
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="C81:I81"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="C90:I90"/>
+    <mergeCell ref="B84:I84"/>
+    <mergeCell ref="C82:I82"/>
+    <mergeCell ref="B88:I88"/>
     <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B72:I72"/>
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="C55:I55"/>
@@ -1371,12 +1546,12 @@
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B52:I52"/>
     <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C49:I49"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B45:I45"/>
     <mergeCell ref="C47:I47"/>
-    <mergeCell ref="C49:I49"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B18:I18"/>

--- a/dev_docs/scrum/fastorder - estimacion y entregas.xlsx
+++ b/dev_docs/scrum/fastorder - estimacion y entregas.xlsx
@@ -419,38 +419,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A86" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:I88"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,12 +768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -793,35 +793,27 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
-        <f>D3*400</f>
-        <v>29200</v>
-      </c>
-      <c r="G3">
-        <f>F3-18000</f>
-        <v>11200</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -866,16 +858,16 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -891,16 +883,16 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
@@ -926,16 +918,16 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
@@ -952,16 +944,16 @@
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
@@ -972,16 +964,16 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
@@ -992,16 +984,16 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
@@ -1012,16 +1004,16 @@
       </c>
     </row>
     <row r="35" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
@@ -1040,30 +1032,30 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>0.5</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B41">
@@ -1093,16 +1085,16 @@
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
     </row>
     <row r="46" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B46">
@@ -1116,15 +1108,15 @@
       <c r="B47">
         <v>2</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B48">
@@ -1155,30 +1147,30 @@
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
@@ -1192,15 +1184,15 @@
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
@@ -1227,16 +1219,16 @@
       </c>
     </row>
     <row r="62" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63">
@@ -1255,16 +1247,16 @@
       </c>
     </row>
     <row r="66" spans="2:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67">
@@ -1275,16 +1267,16 @@
       </c>
     </row>
     <row r="70" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71">
@@ -1295,16 +1287,16 @@
       </c>
     </row>
     <row r="74" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75">
@@ -1315,16 +1307,16 @@
       </c>
     </row>
     <row r="78" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79">
@@ -1346,41 +1338,41 @@
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
     </row>
     <row r="84" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85">
@@ -1391,44 +1383,44 @@
       </c>
     </row>
     <row r="88" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="2:9" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
         <v>0.5</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
       <c r="I89" s="12"/>
     </row>
     <row r="90" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
         <v>0.5</v>
       </c>
-      <c r="C90" s="23" t="s">
+      <c r="C90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91">
@@ -1489,16 +1481,16 @@
       </c>
     </row>
     <row r="101" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102">
@@ -1509,16 +1501,16 @@
       </c>
     </row>
     <row r="106" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
@@ -1527,6 +1519,26 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C49:I49"/>
     <mergeCell ref="B74:I74"/>
     <mergeCell ref="B78:I78"/>
     <mergeCell ref="B70:I70"/>
@@ -1538,26 +1550,6 @@
     <mergeCell ref="B84:I84"/>
     <mergeCell ref="C82:I82"/>
     <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
